--- a/biology/Zoologie/Hyperolius_rubrovermiculatus/Hyperolius_rubrovermiculatus.xlsx
+++ b/biology/Zoologie/Hyperolius_rubrovermiculatus/Hyperolius_rubrovermiculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius rubrovermiculatus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius rubrovermiculatus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kenya. Elle se rencontre dans la réserve nationale de Shimba Hills au sud de Mombasa dans la province de la Côte[1],[2]. On la trouve entre 30 et 400 m d'altitude. Elle vit dans la forêt côtière humide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kenya. Elle se rencontre dans la réserve nationale de Shimba Hills au sud de Mombasa dans la province de la Côte,. On la trouve entre 30 et 400 m d'altitude. Elle vit dans la forêt côtière humide.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 24 à 30 mm et les femelles de 28 à 32 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 24 à 30 mm et les femelles de 28 à 32 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schiøtz, 1975 : The Treefrogs of Eastern Africa. Copenhagen, Steenstrupia, p. 1–232.</t>
         </is>
